--- a/week2-ex1/analysis.xlsx
+++ b/week2-ex1/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antv\Downloads\BaiTapFresherDev\Projects\antv-runs.github.io\week2-ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D794D2-7E76-489D-B9EB-B7FA0A75DAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D081907-8E7F-404A-8F97-1C997FAF21DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="840" windowWidth="22050" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="2025" windowWidth="22050" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
   <si>
     <t>&lt;div&gt;</t>
   </si>
@@ -33,9 +33,6 @@
     <t>&lt;nav&gt;</t>
   </si>
   <si>
-    <t>div = container</t>
-  </si>
-  <si>
     <t>&lt;div</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>&lt;footer</t>
+  </si>
+  <si>
+    <t>&lt;div = container</t>
+  </si>
+  <si>
+    <t>div = inner</t>
   </si>
 </sst>
 </file>
@@ -454,302 +457,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="L1:R60"/>
+  <dimension ref="L2:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="M2" t="s">
+    <row r="2" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="N3" t="s">
+    <row r="5" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="S29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="N4" t="s">
+    <row r="30" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="S30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="P6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="P7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="N9" t="s">
+    <row r="32" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="S32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="P11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="P12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="Q13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="R14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="M16" t="s">
+    <row r="33" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="Q36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="Q45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="Q46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="O48" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="O18" t="s">
+    <row r="49" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="Q50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="P19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="Q20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="Q21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="P22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="Q23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="R24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="P25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="Q26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="R27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="R28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="Q29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="R30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="O32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="O33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="P34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="O36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="O37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="O38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="P39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="P40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="P41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="P42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="P43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="P44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="N46" t="s">
+    <row r="51" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="Q51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="Q52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="Q53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="O47" t="s">
+    <row r="54" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="R54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="R55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O58" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="P48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="P49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="P50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="P51" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="Q52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="Q53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="O54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="O55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N56" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="O57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="O58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="O59" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="O60" t="s">
-        <v>16</v>
+    <row r="59" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
